--- a/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-DedicatedRateStudyRun3.xlsx
+++ b/development/L1Menu_Collisions2022_v1_1_0/PrescaleTable/L1Menu_Collisions2022_v1_1_0-DedicatedRateStudyRun3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_1_0/PrescaleTable-RateStudies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64157D04-77AC-DF4C-A0A2-25D859C5C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF1AB1-A1CB-4A40-830A-F294E2518F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1593,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q392"/>
+  <dimension ref="A1:R392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,7 +1604,7 @@
     <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +1656,11 @@
       <c r="Q1" s="3">
         <v>7.0000000000000002E+33</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="3">
+        <v>5.9999999999999997E+33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1709,8 +1712,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1762,8 +1768,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1815,8 +1824,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1868,8 +1880,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1921,8 +1936,11 @@
       <c r="Q6">
         <v>63000</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1974,8 +1992,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2027,8 +2048,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2080,8 +2104,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2133,8 +2160,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2186,8 +2216,11 @@
       <c r="Q11">
         <v>22000</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2239,8 +2272,11 @@
       <c r="Q12">
         <v>1700</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2292,8 +2328,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2345,8 +2384,11 @@
       <c r="Q14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2398,8 +2440,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2451,8 +2496,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2504,8 +2552,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2557,8 +2608,11 @@
       <c r="Q18">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2610,8 +2664,11 @@
       <c r="Q19">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2663,8 +2720,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2716,8 +2776,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2769,8 +2832,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2822,8 +2888,11 @@
       <c r="Q23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2875,8 +2944,11 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2928,8 +3000,11 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2981,8 +3056,11 @@
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3034,8 +3112,11 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3087,8 +3168,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3140,8 +3224,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3193,8 +3280,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3246,8 +3336,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3299,8 +3392,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3352,8 +3448,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3405,8 +3504,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3458,8 +3560,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3511,8 +3616,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3564,8 +3672,11 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3617,8 +3728,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3670,8 +3784,11 @@
       <c r="Q39">
         <v>1500</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3723,8 +3840,11 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3776,8 +3896,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3829,8 +3952,11 @@
       <c r="Q42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3882,8 +4008,11 @@
       <c r="Q43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3935,8 +4064,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3988,8 +4120,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4041,8 +4176,11 @@
       <c r="Q46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4094,8 +4232,11 @@
       <c r="Q47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4147,8 +4288,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4200,8 +4344,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4253,8 +4400,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4306,8 +4456,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4359,8 +4512,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4412,8 +4568,11 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4465,8 +4624,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4518,8 +4680,11 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4571,8 +4736,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4624,8 +4792,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4677,8 +4848,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4730,8 +4904,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4783,8 +4960,11 @@
       <c r="Q60">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4836,8 +5016,11 @@
       <c r="Q61" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4889,8 +5072,11 @@
       <c r="Q62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4942,8 +5128,11 @@
       <c r="Q63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4995,8 +5184,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5048,8 +5240,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5101,8 +5296,11 @@
       <c r="Q66">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5154,8 +5352,11 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5207,8 +5408,11 @@
       <c r="Q68">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5260,8 +5464,11 @@
       <c r="Q69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5313,8 +5520,11 @@
       <c r="Q70">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5366,8 +5576,11 @@
       <c r="Q71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5419,8 +5632,11 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5472,8 +5688,11 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5525,8 +5744,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5578,8 +5800,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5631,8 +5856,11 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5684,8 +5912,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5737,8 +5968,11 @@
       <c r="Q78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5790,8 +6024,11 @@
       <c r="Q79">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5843,8 +6080,11 @@
       <c r="Q80">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5896,8 +6136,11 @@
       <c r="Q81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5949,8 +6192,11 @@
       <c r="Q82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6002,8 +6248,11 @@
       <c r="Q83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6055,8 +6304,11 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6108,8 +6360,11 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6161,8 +6416,11 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6214,8 +6472,11 @@
       <c r="Q87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6267,8 +6528,11 @@
       <c r="Q88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6320,8 +6584,11 @@
       <c r="Q89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6373,8 +6640,11 @@
       <c r="Q90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6426,8 +6696,11 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6479,8 +6752,11 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6532,8 +6808,11 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6585,8 +6864,11 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6638,8 +6920,11 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -6691,8 +6976,11 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -6744,8 +7032,11 @@
       <c r="Q97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -6797,8 +7088,11 @@
       <c r="Q98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -6850,8 +7144,11 @@
       <c r="Q99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6903,8 +7200,11 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -6956,8 +7256,11 @@
       <c r="Q101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -7009,8 +7312,11 @@
       <c r="Q102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>104</v>
       </c>
@@ -7062,8 +7368,11 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>105</v>
       </c>
@@ -7115,8 +7424,11 @@
       <c r="Q104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -7168,8 +7480,11 @@
       <c r="Q105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>107</v>
       </c>
@@ -7221,8 +7536,11 @@
       <c r="Q106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>109</v>
       </c>
@@ -7274,8 +7592,11 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>110</v>
       </c>
@@ -7327,8 +7648,11 @@
       <c r="Q108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -7380,8 +7704,11 @@
       <c r="Q109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -7433,8 +7760,11 @@
       <c r="Q110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>119</v>
       </c>
@@ -7486,8 +7816,11 @@
       <c r="Q111">
         <v>11000</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>121</v>
       </c>
@@ -7539,8 +7872,11 @@
       <c r="Q112">
         <v>400</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>122</v>
       </c>
@@ -7592,8 +7928,11 @@
       <c r="Q113">
         <v>256</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>123</v>
       </c>
@@ -7645,8 +7984,11 @@
       <c r="Q114">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>124</v>
       </c>
@@ -7698,8 +8040,11 @@
       <c r="Q115">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>125</v>
       </c>
@@ -7751,8 +8096,11 @@
       <c r="Q116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>126</v>
       </c>
@@ -7804,8 +8152,11 @@
       <c r="Q117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>128</v>
       </c>
@@ -7857,8 +8208,11 @@
       <c r="Q118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>129</v>
       </c>
@@ -7910,8 +8264,11 @@
       <c r="Q119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>131</v>
       </c>
@@ -7963,8 +8320,11 @@
       <c r="Q120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>132</v>
       </c>
@@ -8016,8 +8376,11 @@
       <c r="Q121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>134</v>
       </c>
@@ -8069,8 +8432,11 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>135</v>
       </c>
@@ -8122,8 +8488,11 @@
       <c r="Q123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>136</v>
       </c>
@@ -8175,8 +8544,11 @@
       <c r="Q124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>142</v>
       </c>
@@ -8228,8 +8600,11 @@
       <c r="Q125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>143</v>
       </c>
@@ -8281,8 +8656,11 @@
       <c r="Q126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>145</v>
       </c>
@@ -8334,8 +8712,11 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>146</v>
       </c>
@@ -8387,8 +8768,11 @@
       <c r="Q128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>147</v>
       </c>
@@ -8440,8 +8824,11 @@
       <c r="Q129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>148</v>
       </c>
@@ -8493,8 +8880,11 @@
       <c r="Q130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>150</v>
       </c>
@@ -8546,8 +8936,11 @@
       <c r="Q131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>151</v>
       </c>
@@ -8599,8 +8992,11 @@
       <c r="Q132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>152</v>
       </c>
@@ -8652,8 +9048,11 @@
       <c r="Q133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>159</v>
       </c>
@@ -8705,8 +9104,11 @@
       <c r="Q134">
         <v>44000</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>160</v>
       </c>
@@ -8758,8 +9160,11 @@
       <c r="Q135">
         <v>7600</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>161</v>
       </c>
@@ -8811,8 +9216,11 @@
       <c r="Q136">
         <v>1350</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>162</v>
       </c>
@@ -8864,8 +9272,11 @@
       <c r="Q137">
         <v>780</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>163</v>
       </c>
@@ -8917,8 +9328,11 @@
       <c r="Q138">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>164</v>
       </c>
@@ -8970,8 +9384,11 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>165</v>
       </c>
@@ -9023,8 +9440,11 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>166</v>
       </c>
@@ -9076,8 +9496,11 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>167</v>
       </c>
@@ -9129,8 +9552,11 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>168</v>
       </c>
@@ -9182,8 +9608,11 @@
       <c r="Q143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>169</v>
       </c>
@@ -9235,8 +9664,11 @@
       <c r="Q144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>170</v>
       </c>
@@ -9288,8 +9720,11 @@
       <c r="Q145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>171</v>
       </c>
@@ -9341,8 +9776,11 @@
       <c r="Q146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>172</v>
       </c>
@@ -9394,8 +9832,11 @@
       <c r="Q147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>173</v>
       </c>
@@ -9447,8 +9888,11 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>174</v>
       </c>
@@ -9500,8 +9944,11 @@
       <c r="Q149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>175</v>
       </c>
@@ -9553,8 +10000,11 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>176</v>
       </c>
@@ -9606,8 +10056,11 @@
       <c r="Q151" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>177</v>
       </c>
@@ -9659,8 +10112,11 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>178</v>
       </c>
@@ -9712,8 +10168,11 @@
       <c r="Q153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>179</v>
       </c>
@@ -9765,8 +10224,11 @@
       <c r="Q154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>180</v>
       </c>
@@ -9818,8 +10280,11 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>181</v>
       </c>
@@ -9871,8 +10336,11 @@
       <c r="Q156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>182</v>
       </c>
@@ -9924,8 +10392,11 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>183</v>
       </c>
@@ -9977,8 +10448,11 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>184</v>
       </c>
@@ -10030,8 +10504,11 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>185</v>
       </c>
@@ -10083,8 +10560,11 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>186</v>
       </c>
@@ -10136,8 +10616,11 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>187</v>
       </c>
@@ -10189,8 +10672,11 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>188</v>
       </c>
@@ -10242,8 +10728,11 @@
       <c r="Q163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>189</v>
       </c>
@@ -10295,8 +10784,11 @@
       <c r="Q164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>190</v>
       </c>
@@ -10348,8 +10840,11 @@
       <c r="Q165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>191</v>
       </c>
@@ -10401,8 +10896,11 @@
       <c r="Q166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>192</v>
       </c>
@@ -10454,8 +10952,11 @@
       <c r="Q167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>193</v>
       </c>
@@ -10507,8 +11008,11 @@
       <c r="Q168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>194</v>
       </c>
@@ -10560,8 +11064,11 @@
       <c r="Q169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>195</v>
       </c>
@@ -10613,8 +11120,11 @@
       <c r="Q170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>196</v>
       </c>
@@ -10666,8 +11176,11 @@
       <c r="Q171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>197</v>
       </c>
@@ -10719,8 +11232,11 @@
       <c r="Q172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>200</v>
       </c>
@@ -10772,8 +11288,11 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>201</v>
       </c>
@@ -10825,8 +11344,11 @@
       <c r="Q174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>202</v>
       </c>
@@ -10878,8 +11400,11 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>203</v>
       </c>
@@ -10931,8 +11456,11 @@
       <c r="Q176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>204</v>
       </c>
@@ -10984,8 +11512,11 @@
       <c r="Q177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>205</v>
       </c>
@@ -11037,8 +11568,11 @@
       <c r="Q178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>206</v>
       </c>
@@ -11090,8 +11624,11 @@
       <c r="Q179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>207</v>
       </c>
@@ -11143,8 +11680,11 @@
       <c r="Q180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>208</v>
       </c>
@@ -11196,8 +11736,11 @@
       <c r="Q181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>209</v>
       </c>
@@ -11249,8 +11792,11 @@
       <c r="Q182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>210</v>
       </c>
@@ -11302,8 +11848,11 @@
       <c r="Q183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>211</v>
       </c>
@@ -11355,8 +11904,11 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>212</v>
       </c>
@@ -11408,8 +11960,11 @@
       <c r="Q185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>213</v>
       </c>
@@ -11461,8 +12016,11 @@
       <c r="Q186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>214</v>
       </c>
@@ -11514,8 +12072,11 @@
       <c r="Q187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>215</v>
       </c>
@@ -11567,8 +12128,11 @@
       <c r="Q188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>216</v>
       </c>
@@ -11620,8 +12184,11 @@
       <c r="Q189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>217</v>
       </c>
@@ -11673,8 +12240,11 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>218</v>
       </c>
@@ -11726,8 +12296,11 @@
       <c r="Q191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>219</v>
       </c>
@@ -11779,8 +12352,11 @@
       <c r="Q192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>220</v>
       </c>
@@ -11832,8 +12408,11 @@
       <c r="Q193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>221</v>
       </c>
@@ -11885,8 +12464,11 @@
       <c r="Q194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>222</v>
       </c>
@@ -11938,8 +12520,11 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>223</v>
       </c>
@@ -11991,8 +12576,11 @@
       <c r="Q196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>224</v>
       </c>
@@ -12044,8 +12632,11 @@
       <c r="Q197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>225</v>
       </c>
@@ -12097,8 +12688,11 @@
       <c r="Q198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>226</v>
       </c>
@@ -12150,8 +12744,11 @@
       <c r="Q199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>227</v>
       </c>
@@ -12203,8 +12800,11 @@
       <c r="Q200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>228</v>
       </c>
@@ -12256,8 +12856,11 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>229</v>
       </c>
@@ -12309,8 +12912,11 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>230</v>
       </c>
@@ -12362,8 +12968,11 @@
       <c r="Q203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>231</v>
       </c>
@@ -12415,8 +13024,11 @@
       <c r="Q204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>232</v>
       </c>
@@ -12468,8 +13080,11 @@
       <c r="Q205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>233</v>
       </c>
@@ -12521,8 +13136,11 @@
       <c r="Q206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>234</v>
       </c>
@@ -12574,8 +13192,11 @@
       <c r="Q207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>235</v>
       </c>
@@ -12627,8 +13248,11 @@
       <c r="Q208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>236</v>
       </c>
@@ -12680,8 +13304,11 @@
       <c r="Q209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>238</v>
       </c>
@@ -12733,8 +13360,11 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>239</v>
       </c>
@@ -12786,8 +13416,11 @@
       <c r="Q211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>240</v>
       </c>
@@ -12839,8 +13472,11 @@
       <c r="Q212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>241</v>
       </c>
@@ -12892,8 +13528,11 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>242</v>
       </c>
@@ -12945,8 +13584,11 @@
       <c r="Q214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>243</v>
       </c>
@@ -12998,8 +13640,11 @@
       <c r="Q215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>244</v>
       </c>
@@ -13051,8 +13696,11 @@
       <c r="Q216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>247</v>
       </c>
@@ -13104,8 +13752,11 @@
       <c r="Q217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>248</v>
       </c>
@@ -13157,8 +13808,11 @@
       <c r="Q218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>249</v>
       </c>
@@ -13210,8 +13864,11 @@
       <c r="Q219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>250</v>
       </c>
@@ -13263,8 +13920,11 @@
       <c r="Q220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>251</v>
       </c>
@@ -13316,8 +13976,11 @@
       <c r="Q221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>257</v>
       </c>
@@ -13369,8 +14032,11 @@
       <c r="Q222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>258</v>
       </c>
@@ -13422,8 +14088,11 @@
       <c r="Q223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>259</v>
       </c>
@@ -13475,8 +14144,11 @@
       <c r="Q224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>262</v>
       </c>
@@ -13528,8 +14200,11 @@
       <c r="Q225" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>263</v>
       </c>
@@ -13581,8 +14256,11 @@
       <c r="Q226" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>264</v>
       </c>
@@ -13634,8 +14312,11 @@
       <c r="Q227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>265</v>
       </c>
@@ -13687,8 +14368,11 @@
       <c r="Q228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>267</v>
       </c>
@@ -13740,8 +14424,11 @@
       <c r="Q229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>268</v>
       </c>
@@ -13793,8 +14480,11 @@
       <c r="Q230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>269</v>
       </c>
@@ -13846,8 +14536,11 @@
       <c r="Q231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>270</v>
       </c>
@@ -13899,8 +14592,11 @@
       <c r="Q232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>271</v>
       </c>
@@ -13952,8 +14648,11 @@
       <c r="Q233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>272</v>
       </c>
@@ -14005,8 +14704,11 @@
       <c r="Q234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>273</v>
       </c>
@@ -14058,8 +14760,11 @@
       <c r="Q235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>274</v>
       </c>
@@ -14111,8 +14816,11 @@
       <c r="Q236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>275</v>
       </c>
@@ -14164,8 +14872,11 @@
       <c r="Q237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>276</v>
       </c>
@@ -14217,8 +14928,11 @@
       <c r="Q238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>277</v>
       </c>
@@ -14270,8 +14984,11 @@
       <c r="Q239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>279</v>
       </c>
@@ -14323,8 +15040,11 @@
       <c r="Q240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>280</v>
       </c>
@@ -14376,8 +15096,11 @@
       <c r="Q241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>281</v>
       </c>
@@ -14429,8 +15152,11 @@
       <c r="Q242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>282</v>
       </c>
@@ -14482,8 +15208,11 @@
       <c r="Q243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>283</v>
       </c>
@@ -14535,8 +15264,11 @@
       <c r="Q244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>284</v>
       </c>
@@ -14588,8 +15320,11 @@
       <c r="Q245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>285</v>
       </c>
@@ -14641,8 +15376,11 @@
       <c r="Q246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>286</v>
       </c>
@@ -14694,8 +15432,11 @@
       <c r="Q247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>287</v>
       </c>
@@ -14747,8 +15488,11 @@
       <c r="Q248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>288</v>
       </c>
@@ -14800,8 +15544,11 @@
       <c r="Q249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>289</v>
       </c>
@@ -14853,8 +15600,11 @@
       <c r="Q250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>290</v>
       </c>
@@ -14906,8 +15656,11 @@
       <c r="Q251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>291</v>
       </c>
@@ -14959,8 +15712,11 @@
       <c r="Q252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>298</v>
       </c>
@@ -15012,8 +15768,11 @@
       <c r="Q253">
         <v>190</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R253">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>309</v>
       </c>
@@ -15065,8 +15824,11 @@
       <c r="Q254">
         <v>64000</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R254">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>310</v>
       </c>
@@ -15118,8 +15880,11 @@
       <c r="Q255">
         <v>17000</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>311</v>
       </c>
@@ -15171,8 +15936,11 @@
       <c r="Q256">
         <v>1500</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>312</v>
       </c>
@@ -15224,8 +15992,11 @@
       <c r="Q257">
         <v>350</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>313</v>
       </c>
@@ -15277,8 +16048,11 @@
       <c r="Q258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>314</v>
       </c>
@@ -15330,8 +16104,11 @@
       <c r="Q259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>316</v>
       </c>
@@ -15383,8 +16160,11 @@
       <c r="Q260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>317</v>
       </c>
@@ -15436,8 +16216,11 @@
       <c r="Q261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>318</v>
       </c>
@@ -15489,8 +16272,11 @@
       <c r="Q262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>319</v>
       </c>
@@ -15542,8 +16328,11 @@
       <c r="Q263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>320</v>
       </c>
@@ -15595,8 +16384,11 @@
       <c r="Q264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>321</v>
       </c>
@@ -15648,8 +16440,11 @@
       <c r="Q265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>322</v>
       </c>
@@ -15701,8 +16496,11 @@
       <c r="Q266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>324</v>
       </c>
@@ -15754,8 +16552,11 @@
       <c r="Q267">
         <v>103000</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>325</v>
       </c>
@@ -15807,8 +16608,11 @@
       <c r="Q268">
         <v>770</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>326</v>
       </c>
@@ -15860,8 +16664,11 @@
       <c r="Q269">
         <v>250</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R269">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>327</v>
       </c>
@@ -15913,8 +16720,11 @@
       <c r="Q270">
         <v>40</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>329</v>
       </c>
@@ -15966,8 +16776,11 @@
       <c r="Q271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>330</v>
       </c>
@@ -16019,8 +16832,11 @@
       <c r="Q272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>331</v>
       </c>
@@ -16072,8 +16888,11 @@
       <c r="Q273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>332</v>
       </c>
@@ -16125,8 +16944,11 @@
       <c r="Q274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>333</v>
       </c>
@@ -16178,8 +17000,11 @@
       <c r="Q275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>334</v>
       </c>
@@ -16231,8 +17056,11 @@
       <c r="Q276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>335</v>
       </c>
@@ -16284,8 +17112,11 @@
       <c r="Q277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>336</v>
       </c>
@@ -16337,8 +17168,11 @@
       <c r="Q278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>337</v>
       </c>
@@ -16390,8 +17224,11 @@
       <c r="Q279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>338</v>
       </c>
@@ -16443,8 +17280,11 @@
       <c r="Q280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>340</v>
       </c>
@@ -16496,8 +17336,11 @@
       <c r="Q281">
         <v>8400</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R281">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>341</v>
       </c>
@@ -16549,8 +17392,11 @@
       <c r="Q282">
         <v>170</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R282">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>342</v>
       </c>
@@ -16602,8 +17448,11 @@
       <c r="Q283">
         <v>70</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>343</v>
       </c>
@@ -16655,8 +17504,11 @@
       <c r="Q284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>345</v>
       </c>
@@ -16708,8 +17560,11 @@
       <c r="Q285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>346</v>
       </c>
@@ -16761,8 +17616,11 @@
       <c r="Q286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>348</v>
       </c>
@@ -16814,8 +17672,11 @@
       <c r="Q287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>349</v>
       </c>
@@ -16867,8 +17728,11 @@
       <c r="Q288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>350</v>
       </c>
@@ -16920,8 +17784,11 @@
       <c r="Q289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>351</v>
       </c>
@@ -16973,8 +17840,11 @@
       <c r="Q290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>352</v>
       </c>
@@ -17026,8 +17896,11 @@
       <c r="Q291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>353</v>
       </c>
@@ -17079,8 +17952,11 @@
       <c r="Q292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>355</v>
       </c>
@@ -17132,8 +18008,11 @@
       <c r="Q293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>356</v>
       </c>
@@ -17185,8 +18064,11 @@
       <c r="Q294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>357</v>
       </c>
@@ -17238,8 +18120,11 @@
       <c r="Q295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>358</v>
       </c>
@@ -17291,8 +18176,11 @@
       <c r="Q296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>359</v>
       </c>
@@ -17344,8 +18232,11 @@
       <c r="Q297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>360</v>
       </c>
@@ -17397,8 +18288,11 @@
       <c r="Q298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>361</v>
       </c>
@@ -17450,8 +18344,11 @@
       <c r="Q299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>362</v>
       </c>
@@ -17503,8 +18400,11 @@
       <c r="Q300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>363</v>
       </c>
@@ -17556,8 +18456,11 @@
       <c r="Q301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>364</v>
       </c>
@@ -17609,8 +18512,11 @@
       <c r="Q302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>365</v>
       </c>
@@ -17662,8 +18568,11 @@
       <c r="Q303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>366</v>
       </c>
@@ -17715,8 +18624,11 @@
       <c r="Q304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>372</v>
       </c>
@@ -17768,8 +18680,11 @@
       <c r="Q305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>373</v>
       </c>
@@ -17821,8 +18736,11 @@
       <c r="Q306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>374</v>
       </c>
@@ -17874,8 +18792,11 @@
       <c r="Q307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>376</v>
       </c>
@@ -17927,8 +18848,11 @@
       <c r="Q308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>382</v>
       </c>
@@ -17980,8 +18904,11 @@
       <c r="Q309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>383</v>
       </c>
@@ -18033,8 +18960,11 @@
       <c r="Q310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>384</v>
       </c>
@@ -18086,8 +19016,11 @@
       <c r="Q311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>385</v>
       </c>
@@ -18139,8 +19072,11 @@
       <c r="Q312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>386</v>
       </c>
@@ -18192,8 +19128,11 @@
       <c r="Q313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>387</v>
       </c>
@@ -18245,8 +19184,11 @@
       <c r="Q314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>388</v>
       </c>
@@ -18298,8 +19240,11 @@
       <c r="Q315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>389</v>
       </c>
@@ -18351,8 +19296,11 @@
       <c r="Q316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>390</v>
       </c>
@@ -18404,8 +19352,11 @@
       <c r="Q317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>391</v>
       </c>
@@ -18457,8 +19408,11 @@
       <c r="Q318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>398</v>
       </c>
@@ -18510,8 +19464,11 @@
       <c r="Q319">
         <v>11400</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>399</v>
       </c>
@@ -18563,8 +19520,11 @@
       <c r="Q320">
         <v>4100</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R320">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>400</v>
       </c>
@@ -18616,8 +19576,11 @@
       <c r="Q321">
         <v>1600</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R321">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>401</v>
       </c>
@@ -18669,8 +19632,11 @@
       <c r="Q322">
         <v>500</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R322">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>402</v>
       </c>
@@ -18722,8 +19688,11 @@
       <c r="Q323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>403</v>
       </c>
@@ -18775,8 +19744,11 @@
       <c r="Q324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>404</v>
       </c>
@@ -18828,8 +19800,11 @@
       <c r="Q325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>405</v>
       </c>
@@ -18881,8 +19856,11 @@
       <c r="Q326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>406</v>
       </c>
@@ -18934,8 +19912,11 @@
       <c r="Q327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>410</v>
       </c>
@@ -18987,8 +19968,11 @@
       <c r="Q328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>411</v>
       </c>
@@ -19040,8 +20024,11 @@
       <c r="Q329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>412</v>
       </c>
@@ -19093,8 +20080,11 @@
       <c r="Q330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>416</v>
       </c>
@@ -19146,8 +20136,11 @@
       <c r="Q331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>417</v>
       </c>
@@ -19199,8 +20192,11 @@
       <c r="Q332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>421</v>
       </c>
@@ -19252,8 +20248,11 @@
       <c r="Q333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>422</v>
       </c>
@@ -19305,8 +20304,11 @@
       <c r="Q334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>423</v>
       </c>
@@ -19358,8 +20360,11 @@
       <c r="Q335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>424</v>
       </c>
@@ -19411,8 +20416,11 @@
       <c r="Q336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>425</v>
       </c>
@@ -19464,8 +20472,11 @@
       <c r="Q337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>426</v>
       </c>
@@ -19517,8 +20528,11 @@
       <c r="Q338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>428</v>
       </c>
@@ -19570,8 +20584,11 @@
       <c r="Q339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>429</v>
       </c>
@@ -19623,8 +20640,11 @@
       <c r="Q340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>430</v>
       </c>
@@ -19676,8 +20696,11 @@
       <c r="Q341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>431</v>
       </c>
@@ -19729,8 +20752,11 @@
       <c r="Q342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>432</v>
       </c>
@@ -19782,8 +20808,11 @@
       <c r="Q343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>443</v>
       </c>
@@ -19835,8 +20864,11 @@
       <c r="Q344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>444</v>
       </c>
@@ -19888,8 +20920,11 @@
       <c r="Q345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>446</v>
       </c>
@@ -19941,8 +20976,11 @@
       <c r="Q346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>447</v>
       </c>
@@ -19994,8 +21032,11 @@
       <c r="Q347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>448</v>
       </c>
@@ -20047,8 +21088,11 @@
       <c r="Q348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>451</v>
       </c>
@@ -20100,8 +21144,11 @@
       <c r="Q349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>452</v>
       </c>
@@ -20153,8 +21200,11 @@
       <c r="Q350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>453</v>
       </c>
@@ -20206,8 +21256,11 @@
       <c r="Q351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>454</v>
       </c>
@@ -20259,8 +21312,11 @@
       <c r="Q352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>458</v>
       </c>
@@ -20312,8 +21368,11 @@
       <c r="Q353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>459</v>
       </c>
@@ -20365,8 +21424,11 @@
       <c r="Q354">
         <v>17881</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R354">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>460</v>
       </c>
@@ -20418,8 +21480,11 @@
       <c r="Q355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>461</v>
       </c>
@@ -20471,8 +21536,11 @@
       <c r="Q356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>462</v>
       </c>
@@ -20524,8 +21592,11 @@
       <c r="Q357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>463</v>
       </c>
@@ -20577,8 +21648,11 @@
       <c r="Q358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>464</v>
       </c>
@@ -20630,8 +21704,11 @@
       <c r="Q359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>465</v>
       </c>
@@ -20683,8 +21760,11 @@
       <c r="Q360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>466</v>
       </c>
@@ -20736,8 +21816,11 @@
       <c r="Q361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>467</v>
       </c>
@@ -20789,8 +21872,11 @@
       <c r="Q362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>468</v>
       </c>
@@ -20842,8 +21928,11 @@
       <c r="Q363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>469</v>
       </c>
@@ -20895,8 +21984,11 @@
       <c r="Q364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>471</v>
       </c>
@@ -20948,8 +22040,11 @@
       <c r="Q365">
         <v>110</v>
       </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R365">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>472</v>
       </c>
@@ -21001,8 +22096,11 @@
       <c r="Q366">
         <v>269167</v>
       </c>
-    </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R366">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>473</v>
       </c>
@@ -21054,8 +22152,11 @@
       <c r="Q367">
         <v>269167</v>
       </c>
-    </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R367">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>474</v>
       </c>
@@ -21107,8 +22208,11 @@
       <c r="Q368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>475</v>
       </c>
@@ -21160,8 +22264,11 @@
       <c r="Q369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>476</v>
       </c>
@@ -21213,8 +22320,11 @@
       <c r="Q370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>477</v>
       </c>
@@ -21266,8 +22376,11 @@
       <c r="Q371">
         <v>269167</v>
       </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R371">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>478</v>
       </c>
@@ -21319,8 +22432,11 @@
       <c r="Q372">
         <v>269167</v>
       </c>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R372">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>479</v>
       </c>
@@ -21372,8 +22488,11 @@
       <c r="Q373">
         <v>269167</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R373">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>480</v>
       </c>
@@ -21425,8 +22544,11 @@
       <c r="Q374">
         <v>1103</v>
       </c>
-    </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R374">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>482</v>
       </c>
@@ -21478,8 +22600,11 @@
       <c r="Q375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>483</v>
       </c>
@@ -21531,8 +22656,11 @@
       <c r="Q376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>484</v>
       </c>
@@ -21584,8 +22712,11 @@
       <c r="Q377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>485</v>
       </c>
@@ -21637,8 +22768,11 @@
       <c r="Q378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>486</v>
       </c>
@@ -21690,8 +22824,11 @@
       <c r="Q379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>487</v>
       </c>
@@ -21743,8 +22880,11 @@
       <c r="Q380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>488</v>
       </c>
@@ -21796,8 +22936,11 @@
       <c r="Q381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>489</v>
       </c>
@@ -21849,8 +22992,11 @@
       <c r="Q382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>490</v>
       </c>
@@ -21902,8 +23048,11 @@
       <c r="Q383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>491</v>
       </c>
@@ -21955,8 +23104,11 @@
       <c r="Q384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>492</v>
       </c>
@@ -22008,8 +23160,11 @@
       <c r="Q385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>494</v>
       </c>
@@ -22061,8 +23216,11 @@
       <c r="Q386">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>500</v>
       </c>
@@ -22114,8 +23272,11 @@
       <c r="Q387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>501</v>
       </c>
@@ -22167,8 +23328,11 @@
       <c r="Q388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>503</v>
       </c>
@@ -22220,8 +23384,11 @@
       <c r="Q389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>504</v>
       </c>
@@ -22273,8 +23440,11 @@
       <c r="Q390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>505</v>
       </c>
@@ -22326,8 +23496,11 @@
       <c r="Q391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>506</v>
       </c>
@@ -22377,6 +23550,9 @@
         <v>0</v>
       </c>
       <c r="Q392">
+        <v>0</v>
+      </c>
+      <c r="R392">
         <v>0</v>
       </c>
     </row>
